--- a/VennOutput/Trimmed_OUTPUT9_VennResults.xlsx
+++ b/VennOutput/Trimmed_OUTPUT9_VennResults.xlsx
@@ -384,7 +384,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -396,7 +396,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -408,7 +408,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -420,7 +420,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -432,7 +432,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -444,7 +444,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -456,7 +456,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -480,7 +480,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -492,7 +492,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -504,7 +504,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -516,7 +516,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -528,7 +528,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -540,7 +540,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -552,7 +552,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -564,7 +564,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -576,7 +576,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -588,7 +588,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -600,7 +600,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -612,7 +612,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -624,7 +624,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -636,7 +636,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -648,7 +648,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -660,7 +660,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -672,7 +672,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -708,7 +708,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -720,7 +720,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -744,7 +744,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -756,7 +756,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -768,7 +768,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -780,7 +780,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -792,7 +792,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -804,7 +804,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -816,7 +816,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -840,7 +840,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -852,7 +852,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -864,7 +864,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -876,7 +876,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -900,7 +900,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -912,7 +912,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -924,7 +924,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -936,7 +936,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -948,7 +948,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -960,7 +960,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -972,7 +972,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -984,7 +984,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -996,7 +996,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1008,7 +1008,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1020,7 +1020,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1032,7 +1032,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PFIZER_MODERNA</t>
+          <t>Pfizer_Moderna</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1044,7 +1044,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1056,7 +1056,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1068,7 +1068,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1080,7 +1080,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1104,7 +1104,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1116,7 +1116,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1128,7 +1128,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1140,7 +1140,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1152,7 +1152,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1164,7 +1164,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1176,7 +1176,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1188,7 +1188,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1200,7 +1200,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1212,7 +1212,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1224,7 +1224,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1236,7 +1236,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1248,7 +1248,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1260,7 +1260,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1272,7 +1272,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1284,7 +1284,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1308,7 +1308,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1320,7 +1320,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1332,7 +1332,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1344,7 +1344,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1356,7 +1356,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1368,7 +1368,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1380,7 +1380,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1392,7 +1392,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1416,7 +1416,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1428,7 +1428,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1440,7 +1440,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1452,7 +1452,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1464,7 +1464,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1476,7 +1476,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1488,7 +1488,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1512,7 +1512,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1524,7 +1524,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1536,7 +1536,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">

--- a/VennOutput/Trimmed_OUTPUT9_VennResults.xlsx
+++ b/VennOutput/Trimmed_OUTPUT9_VennResults.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:Q99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -368,6 +368,81 @@
           <t>Detail</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Case No.x</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PRR.x</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage of cases.x</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Xsquared.x</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Significance.x</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Case No.y</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PRR.y</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage of cases.y</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Xsquared.y</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Significance.y</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Case No</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>PRR</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage of cases</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Xsquared</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Significance</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -380,6 +455,81 @@
           <t>Taste disorder</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1271</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.6283277288293</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>690.31117396375</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1125</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2.2270009353107</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>449.58348075646</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2.0509908039405</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>107.26684828066</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -392,6 +542,56 @@
           <t>Acute kidney injury</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1588</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.9126569868806</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1023.459708257</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2.1719247765246</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>156.80762093145</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -404,6 +604,56 @@
           <t>Cardiac disorder</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>944</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.6657369167634</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>525.05313980923</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2.152712704198</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>94.120269237197</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -416,6 +666,56 @@
           <t>Computerised tomogram thorax abnormal</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1215</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.1905192884421</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>458.38905475031</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>3.0863608231953</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>415.84246590849</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -428,6 +728,56 @@
           <t>Deep vein thrombosis</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1483</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.0588303063212</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>483.30705790769</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>4.993792842878</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>1687.6867676318</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -440,6 +790,56 @@
           <t>Dysmenorrhoea</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1344</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.7435795577953</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1216.8797195821</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2.2534906228704</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>133.40926210047</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -452,6 +852,56 @@
           <t>Dyspnoea exertional</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1155</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.393290330683</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>525.91509632325</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2.5230913062631</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>208.40341515934</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -464,6 +914,56 @@
           <t>Facial paralysis</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1558</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.1435444916778</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>559.70133149578</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2.0824595668517</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>156.60438174181</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -476,6 +976,56 @@
           <t>Fibrin D dimer increased</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.5428089884389</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>575.8902597015</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>3.7321704424737</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>579.45599904289</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -488,6 +1038,56 @@
           <t>Head discomfort</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1926</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.4682474757021</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>933.12995918297</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2.4285290194234</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>303.66857393822</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -500,6 +1100,56 @@
           <t>Heavy menstrual bleeding</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3098</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.0758130664225</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3094.8870894472</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>534</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2.6028253605303</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>475.12301883774</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -512,6 +1162,56 @@
           <t>Menstrual disorder</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1857</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.8349576067958</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1730.7463036389</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2.1562829998738</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>156.69790565909</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -524,6 +1224,56 @@
           <t>Menstruation irregular</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2366</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.5222699471046</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1992.2126756349</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2.2408572266882</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>238.07788295992</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -536,6 +1286,56 @@
           <t>Myocardial infarction</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1067</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.1641519266368</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>391.38202559715</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2.4032346834318</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>174.58857344086</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -548,6 +1348,56 @@
           <t>Pulmonary embolism</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2072</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.1994663731093</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>790.47501460782</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>3.9065785280616</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>1297.9812504724</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -560,6 +1410,56 @@
           <t>Thrombosis</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2367</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.117544579358</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>827.54171651104</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>1311</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>6.9757925446417</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>5204.4828018614</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -572,6 +1472,56 @@
           <t>Vaginal haemorrhage</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1041</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.5766447223369</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>545.29756969825</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2.0821361670432</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>93.742486463218</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -584,6 +1534,31 @@
           <t>Angiogram pulmonary abnormal</t>
         </is>
       </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>3.8494077667818</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>391.88895777994</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -596,6 +1571,31 @@
           <t>Cerebrovascular accident</t>
         </is>
       </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>2.9448666956332</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>695.42736416665</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -608,6 +1608,31 @@
           <t>Chills</t>
         </is>
       </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>11827</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2.2884229248535</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>15.96</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>8446.8864933775</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -620,6 +1645,31 @@
           <t>Cold sweat</t>
         </is>
       </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2.5545059141068</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>593.86368705519</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -632,6 +1682,31 @@
           <t>Computerised tomogram head abnormal</t>
         </is>
       </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>3.8147523723214</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>398.9220076455</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -644,6 +1719,31 @@
           <t>Contusion</t>
         </is>
       </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>703</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2.078958902762</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>362.80018214413</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -656,6 +1756,31 @@
           <t>Death</t>
         </is>
       </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>1573</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2.2858013690062</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>1047.263545788</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -668,6 +1793,31 @@
           <t>Disorientation</t>
         </is>
       </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2.0417285284581</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>161.43109787682</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -680,6 +1830,31 @@
           <t>Epistaxis</t>
         </is>
       </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>2.2710647976181</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>225.32831576479</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -692,6 +1867,31 @@
           <t>Eye pain</t>
         </is>
       </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2.0905927820853</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>239.27073400392</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -704,6 +1904,31 @@
           <t>Feeling cold</t>
         </is>
       </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>1178</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>2.8945598199238</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>1308.6930423942</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -716,6 +1941,31 @@
           <t>Feeling of body temperature change</t>
         </is>
       </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>2.8444717026693</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>246.49946871618</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -728,6 +1978,31 @@
           <t>Gait inability</t>
         </is>
       </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2.1708206535212</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>189.71919682725</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -740,6 +2015,31 @@
           <t>Head injury</t>
         </is>
       </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>2.0135125237361</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>158.8875248964</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -752,6 +2052,31 @@
           <t>Headache</t>
         </is>
       </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>16780</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>2.2112625010894</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>11413.596681457</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -764,6 +2089,31 @@
           <t>Heart rate decreased</t>
         </is>
       </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>2.0217560146926</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>75.748521962359</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -776,6 +2126,31 @@
           <t>Hot flush</t>
         </is>
       </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>2.3706761598179</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>347.16666278017</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -788,6 +2163,31 @@
           <t>Hyperhidrosis</t>
         </is>
       </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>3781</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>2.7260896281533</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>3782.6775095297</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -800,6 +2200,31 @@
           <t>Impaired work ability</t>
         </is>
       </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>777</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>2.0971293699522</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>411.0392390985</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -812,6 +2237,31 @@
           <t>Loss of consciousness</t>
         </is>
       </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>2.280559989289</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>1310.4436876781</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -824,6 +2274,31 @@
           <t>Magnetic resonance imaging head abnormal</t>
         </is>
       </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>3.516247267582</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>385.75242347393</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -836,6 +2311,31 @@
           <t>Mechanical ventilation</t>
         </is>
       </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>2.5946915312787</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>152.4614354531</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -848,6 +2348,31 @@
           <t>Migraine</t>
         </is>
       </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>1348</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>2.6462271985865</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>1250.311858399</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -860,6 +2385,31 @@
           <t>Muscle spasms</t>
         </is>
       </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>1430</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>2.630180576186</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>1310.0980410524</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -872,6 +2422,31 @@
           <t>Muscle tightness</t>
         </is>
       </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>2.2940084312217</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>196.90665379754</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -884,6 +2459,31 @@
           <t>Panic attack</t>
         </is>
       </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>2.1800313933376</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>93.788140052581</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -896,6 +2496,31 @@
           <t>Parosmia</t>
         </is>
       </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>2.2749500728666</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>105.87977352985</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -908,6 +2533,31 @@
           <t>Platelet count decreased</t>
         </is>
       </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>2.0930270796098</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>171.45738848464</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -920,6 +2570,31 @@
           <t>Pulmonary thrombosis</t>
         </is>
       </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>5.3791724117627</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>537.68669929673</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -932,6 +2607,31 @@
           <t>Seizure</t>
         </is>
       </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>735</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>2.3771907098513</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>534.33859324216</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -944,6 +2644,31 @@
           <t>Sensitive skin</t>
         </is>
       </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>2.9249765096674</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>213.96597334807</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -956,6 +2681,31 @@
           <t>Sensory disturbance</t>
         </is>
       </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>2.4958599347551</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>203.41392315477</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -968,6 +2718,31 @@
           <t>Sleep disorder</t>
         </is>
       </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>1141</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>2.0803442037302</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>592.34018892428</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -980,6 +2755,31 @@
           <t>Thirst</t>
         </is>
       </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>2.3274609576941</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>144.48114053699</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -992,6 +2792,31 @@
           <t>Ultrasound Doppler abnormal</t>
         </is>
       </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>5.0933538822198</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>813.24477727124</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1004,6 +2829,31 @@
           <t>Ultrasound scan abnormal</t>
         </is>
       </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>2.0551019565812</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>80.874697382045</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1016,6 +2866,31 @@
           <t>Vision blurred</t>
         </is>
       </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>1248</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>2.8320641168411</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>1328.9254710405</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1028,6 +2903,31 @@
           <t>Visual impairment</t>
         </is>
       </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>2.2323574793724</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>381.03613531861</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1040,6 +2940,56 @@
           <t>Vaccination site pain</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>8491</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.1106897130118</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2972.2886226533</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>10762</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>3.4476647056724</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>9139.9672644174</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1052,6 +3002,31 @@
           <t>Immunisation reaction</t>
         </is>
       </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2.4225224632103</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>505.21810756241</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1064,6 +3039,31 @@
           <t>Injection site pruritus</t>
         </is>
       </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>17241</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>3.5219186042064</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>15151.601506199</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1076,6 +3076,31 @@
           <t>Injection site rash</t>
         </is>
       </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>9803</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2.7574762879009</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>5986.9780326044</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1088,6 +3113,31 @@
           <t>Vaccination complication</t>
         </is>
       </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>4031</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>3.1665663910606</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>3026.8181082025</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1100,6 +3150,31 @@
           <t>Vaccination site erythema</t>
         </is>
       </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>6187</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>7.9964739604165</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>10932.946238896</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1112,6 +3187,31 @@
           <t>Vaccination site induration</t>
         </is>
       </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>1261</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>8.13268672762</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>2239.230019617</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1124,6 +3224,31 @@
           <t>Vaccination site mass</t>
         </is>
       </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>916</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>4.1082375195636</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>946.33235251829</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1136,6 +3261,31 @@
           <t>Vaccination site pruritus</t>
         </is>
       </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>3923</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>11.702578835371</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>8314.6627579831</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1148,6 +3298,31 @@
           <t>Vaccination site rash</t>
         </is>
       </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2492</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>8.4499955909465</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>4526.8956665437</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1160,6 +3335,31 @@
           <t>Vaccination site reaction</t>
         </is>
       </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>1323</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>7.2065449320582</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>2185.937090542</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1172,6 +3372,31 @@
           <t>Vaccination site swelling</t>
         </is>
       </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>4788</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>4.438014065114</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>5388.7382168538</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1184,6 +3409,31 @@
           <t>Vaccination site warmth</t>
         </is>
       </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>3189</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>6.9156421405233</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>5142.2996013557</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1196,6 +3446,31 @@
           <t>Acute myocardial infarction</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.5768085680808</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>498.58500962494</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1208,6 +3483,31 @@
           <t>Acute respiratory failure</t>
         </is>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>3125</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.9939149912321</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2105.7044268758</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1220,6 +3520,31 @@
           <t>Ageusia</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2943</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.6389992901284</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1614.5822233843</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1232,6 +3557,31 @@
           <t>Anosmia</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2526</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.015396034117</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1719.0609350349</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1244,6 +3594,31 @@
           <t>Atrial fibrillation</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2362</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.1890629141796</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>891.98670711344</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1256,6 +3631,31 @@
           <t>Axillary pain</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>3665</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.4987893439298</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1822.4758211584</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1268,6 +3668,31 @@
           <t>Bell\'s palsy</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2036</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.6547007567072</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1127.0769273232</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1280,6 +3705,31 @@
           <t>Blood pressure increased</t>
         </is>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.1787871757901</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1480.6413739265</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1292,6 +3742,31 @@
           <t>Breast pain</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1281</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.6815544654553</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>720.52999711361</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1304,6 +3779,31 @@
           <t>Chest discomfort</t>
         </is>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>9706</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.2348263607678</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3878.2425613713</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1316,6 +3816,31 @@
           <t>Chest pain</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>15233</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.2738112654745</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6364.7454950463</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1328,6 +3853,31 @@
           <t>Dysgeusia</t>
         </is>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2777</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.237011003311</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1101.3559656029</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1340,6 +3890,31 @@
           <t>Ear discomfort</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>1676</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.4347865743252</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>790.48021584373</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1352,6 +3927,31 @@
           <t>Echocardiogram abnormal</t>
         </is>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>1136</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.0663119076739</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>373.19373421724</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1364,6 +3964,31 @@
           <t>Heart rate increased</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>8401</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.02098945396</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2641.4381388765</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1376,6 +4001,31 @@
           <t>Heart rate irregular</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>1259</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.2202468647545</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>489.62370652393</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1388,6 +4038,31 @@
           <t>Hypoacusis</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>1008</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.2481896871632</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>402.62418959272</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1400,6 +4075,31 @@
           <t>Hypoaesthesia oral</t>
         </is>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2833</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.4086602721982</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1310.7413032574</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1412,6 +4112,31 @@
           <t>Hypoxia</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2893</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.0522880458126</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>937.95974699724</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1424,6 +4149,31 @@
           <t>Lymph node pain</t>
         </is>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>3226</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.6979169114589</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1839.5668717268</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1436,6 +4186,31 @@
           <t>Lymphadenopathy</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>14256</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.1310875050666</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5145.6739064588</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1448,6 +4223,31 @@
           <t>Myocarditis</t>
         </is>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2078</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.5502276957859</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1766.4131084192</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1460,6 +4260,31 @@
           <t>Palpitations</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>9247</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.3612010494849</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4146.5382235549</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1472,6 +4297,31 @@
           <t>Paraesthesia oral</t>
         </is>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>3829</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.4930992988583</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1896.2847090537</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1484,6 +4334,31 @@
           <t>Pericarditis</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>1302</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.5843874168105</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>686.22575756508</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1496,6 +4371,31 @@
           <t>Pharyngeal swelling</t>
         </is>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2527</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.7806311943489</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1514.3413707871</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1508,6 +4408,31 @@
           <t>Swollen tongue</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2633</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.0056364135755</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>804.78835091682</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1520,6 +4445,31 @@
           <t>Throat irritation</t>
         </is>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>4058</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.0982596832738</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1391.7422773053</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1532,6 +4482,31 @@
           <t>Tinnitus</t>
         </is>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>9260</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.5804536170253</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4920.6678183625</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1542,6 +4517,31 @@
       <c r="B99" t="inlineStr">
         <is>
           <t>Troponin increased</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.295936823526</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1520.2710518772</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
     </row>
